--- a/planejamento/cronograma.xlsx
+++ b/planejamento/cronograma.xlsx
@@ -1117,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CX13"/>
+  <dimension ref="A1:CX12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,7 +1872,9 @@
       <c r="CX5" s="3"/>
     </row>
     <row r="6" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1977,7 +1979,7 @@
     </row>
     <row r="7" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2083,7 +2085,7 @@
     </row>
     <row r="8" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2189,7 +2191,7 @@
     </row>
     <row r="9" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2295,7 +2297,7 @@
     </row>
     <row r="10" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2401,7 +2403,7 @@
     </row>
     <row r="11" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2507,7 +2509,7 @@
     </row>
     <row r="12" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2611,112 +2613,6 @@
       <c r="CW12" s="3"/>
       <c r="CX12" s="3"/>
     </row>
-    <row r="13" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13" s="3"/>
-      <c r="AX13" s="3"/>
-      <c r="AY13" s="3"/>
-      <c r="AZ13" s="3"/>
-      <c r="BA13" s="3"/>
-      <c r="BB13" s="3"/>
-      <c r="BC13" s="3"/>
-      <c r="BD13" s="3"/>
-      <c r="BE13" s="3"/>
-      <c r="BF13" s="3"/>
-      <c r="BG13" s="3"/>
-      <c r="BH13" s="3"/>
-      <c r="BI13" s="3"/>
-      <c r="BJ13" s="3"/>
-      <c r="BK13" s="3"/>
-      <c r="BL13" s="3"/>
-      <c r="BM13" s="3"/>
-      <c r="BN13" s="3"/>
-      <c r="BO13" s="3"/>
-      <c r="BP13" s="3"/>
-      <c r="BQ13" s="3"/>
-      <c r="BR13" s="3"/>
-      <c r="BS13" s="3"/>
-      <c r="BT13" s="3"/>
-      <c r="BU13" s="3"/>
-      <c r="BV13" s="3"/>
-      <c r="BW13" s="3"/>
-      <c r="BX13" s="3"/>
-      <c r="BY13" s="3"/>
-      <c r="BZ13" s="3"/>
-      <c r="CA13" s="3"/>
-      <c r="CB13" s="3"/>
-      <c r="CC13" s="3"/>
-      <c r="CD13" s="3"/>
-      <c r="CE13" s="3"/>
-      <c r="CF13" s="3"/>
-      <c r="CG13" s="3"/>
-      <c r="CH13" s="3"/>
-      <c r="CI13" s="3"/>
-      <c r="CJ13" s="3"/>
-      <c r="CK13" s="3"/>
-      <c r="CL13" s="3"/>
-      <c r="CM13" s="3"/>
-      <c r="CN13" s="3"/>
-      <c r="CO13" s="3"/>
-      <c r="CP13" s="3"/>
-      <c r="CQ13" s="3"/>
-      <c r="CR13" s="3"/>
-      <c r="CS13" s="3"/>
-      <c r="CT13" s="3"/>
-      <c r="CU13" s="3"/>
-      <c r="CV13" s="3"/>
-      <c r="CW13" s="3"/>
-      <c r="CX13" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/planejamento/cronograma.xlsx
+++ b/planejamento/cronograma.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="DIAS" sheetId="4" r:id="rId1"/>
-    <sheet name="CRONOGRAMA_A" sheetId="6" r:id="rId2"/>
-    <sheet name="CRONOGRAMA_B" sheetId="7" r:id="rId3"/>
+    <sheet name="CRONOGRAMA_FRONT" sheetId="6" r:id="rId2"/>
+    <sheet name="CRONOGRAMA_BACK" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1485,9 +1485,7 @@
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:A142"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A102"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13523,11 +13521,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CX105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="AW6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:G12"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
